--- a/Financials/KNSL.xlsx
+++ b/Financials/KNSL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59890CB2-DEC2-2B44-A2C3-14A0CD0D1683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90055A89-D91B-2A4A-9B5C-224777BD0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1946,8 +1946,10 @@
     <v>548.47</v>
     <v>325.01</v>
     <v>1.0996999999999999</v>
-    <v>22.73</v>
-    <v>5.2998999999999998E-2</v>
+    <v>-3.35</v>
+    <v>-7.4180000000000001E-3</v>
+    <v>3.74</v>
+    <v>8.3429999999999997E-3</v>
     <v>USD</v>
     <v>Kinsale Capital Group, Inc. is a property and casualty insurance company that focuses on the excess and surplus lines (E&amp;S) market in the United States. The Company markets and sells insurance products in approximately 50 states, the District of Columbia, the Commonwealth of Puerto Rico, and the United States Virgin Islands primarily through a network of independent insurance brokers. It writes an array of insurance coverages for risks that are unusual or hard to place in the standard insurance market. Its commercial lines offerings include commercial property, excess casualty, small business casualty, construction, general casualty, allied health, products liability, small business property, life sciences, entertainment, energy, professional liability, management liability, environmental, excess professional, health care, public entity, commercial auto, inland marine, aviation, ocean marine, product recall, and railroad. It also writes homeowners coverage in the personal lines market.</v>
     <v>561</v>
@@ -1955,24 +1957,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2035 MAYWILL STREET, SUITE 100, RICHMOND, VA, 23230 US</v>
-    <v>455.73</v>
+    <v>454.16</v>
     <v>Insurance</v>
     <v>Stock</v>
-    <v>45602.881944444445</v>
+    <v>45603.965272453126</v>
     <v>0</v>
-    <v>442.52499999999998</v>
-    <v>10517084647</v>
+    <v>444.51</v>
+    <v>10517080000</v>
     <v>KINSALE CAPITAL GROUP, INC.</v>
     <v>KINSALE CAPITAL GROUP, INC.</v>
-    <v>453.51</v>
-    <v>25.755700000000001</v>
-    <v>428.88</v>
     <v>451.61</v>
+    <v>25.564699999999998</v>
+    <v>451.61</v>
+    <v>448.26</v>
+    <v>452</v>
     <v>23287980</v>
     <v>KNSL</v>
     <v>KINSALE CAPITAL GROUP, INC. (XNYS:KNSL)</v>
-    <v>159521</v>
-    <v>163479</v>
+    <v>97193</v>
+    <v>162452</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2004,6 +2007,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2024,6 +2029,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2040,7 +2046,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2051,13 +2057,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2123,13 +2132,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2174,6 +2189,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2181,6 +2199,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2881,14 +2902,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>451.61</v>
+        <v>448.26</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>6.6563826879746832</v>
+        <v>6.6563797468354426</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2928,14 +2949,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.2998999999999998E-2</v>
+        <v>-7.4180000000000001E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>29.625590554929577</v>
+        <v>29.625577464788734</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2976,14 +2997,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>10517084647</v>
+        <v>10517080000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>0.10269005492012181</v>
+        <v>0.10269010029399796</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3058,7 +3079,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>0.91198702669904153</v>
+        <v>0.92627595843384247</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
